--- a/Assignments/POL-18970-Tutorial_introduction_to_survey_methodology.xlsx
+++ b/Assignments/POL-18970-Tutorial_introduction_to_survey_methodology.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bache\Documents\Studium&amp;Beruf\Uni\Master\1.Semester\Survey Tut\Survey_Tutorial_24_25\Assignments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA83904A-1BC5-4C86-8500-CC58DEA57D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="First Sheet" r:id="rId3" sheetId="1"/>
+    <sheet name="First Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -959,33 +967,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
-      <sz val="10.0"/>
-      <b val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1002,51 +1004,381 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection hidden="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-      <protection locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="20" max="20" hidden="true" width="8.0" customWidth="false"/>
+    <col min="20" max="20" width="8" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1054,15 +1386,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="T4" t="s" s="5">
+      <c r="T4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1475,9 @@
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1172,7 +1506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1191,7 +1525,9 @@
       <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>31</v>
       </c>
@@ -1220,7 +1556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1239,7 +1575,9 @@
       <c r="F8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1268,7 +1606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -1287,7 +1625,9 @@
       <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1316,7 +1656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1335,7 +1675,9 @@
       <c r="F10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
       <c r="H10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +1706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -1383,7 +1725,9 @@
       <c r="F11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1756,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
@@ -1431,7 +1775,9 @@
       <c r="F12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1479,7 +1825,9 @@
       <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
@@ -1527,7 +1875,9 @@
       <c r="F14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
@@ -1575,7 +1925,9 @@
       <c r="F15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1604,7 +1956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>82</v>
       </c>
@@ -1623,7 +1975,9 @@
       <c r="F16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1652,7 +2006,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>87</v>
       </c>
@@ -1671,7 +2025,9 @@
       <c r="F17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
       <c r="H17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1700,7 +2056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
@@ -1719,7 +2075,9 @@
       <c r="F18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1748,7 +2106,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>98</v>
       </c>
@@ -1767,7 +2125,9 @@
       <c r="F19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +2156,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>103</v>
       </c>
@@ -1815,7 +2175,9 @@
       <c r="F20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
       <c r="H20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +2206,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>108</v>
       </c>
@@ -1863,7 +2225,9 @@
       <c r="F21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>31</v>
       </c>
@@ -1892,7 +2256,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>113</v>
       </c>
@@ -1911,7 +2275,9 @@
       <c r="F22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>31</v>
       </c>
@@ -1940,7 +2306,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>118</v>
       </c>
@@ -1959,7 +2325,9 @@
       <c r="F23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1988,7 +2356,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>123</v>
       </c>
@@ -2007,7 +2375,9 @@
       <c r="F24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>1.7</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>31</v>
       </c>
@@ -2036,7 +2406,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>128</v>
       </c>
@@ -2055,7 +2425,9 @@
       <c r="F25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>31</v>
       </c>
@@ -2084,7 +2456,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>133</v>
       </c>
@@ -2103,7 +2475,9 @@
       <c r="F26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
       <c r="H26" s="4" t="s">
         <v>31</v>
       </c>
@@ -2132,7 +2506,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>138</v>
       </c>
@@ -2151,7 +2525,9 @@
       <c r="F27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="H27" s="4" t="s">
         <v>31</v>
       </c>
@@ -2180,7 +2556,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>143</v>
       </c>
@@ -2199,7 +2575,9 @@
       <c r="F28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
       <c r="H28" s="4" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>148</v>
       </c>
@@ -2247,7 +2625,9 @@
       <c r="F29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
       <c r="H29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2276,7 +2656,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>153</v>
       </c>
@@ -2295,7 +2675,9 @@
       <c r="F30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3">
+        <v>1.3</v>
+      </c>
       <c r="H30" s="4" t="s">
         <v>157</v>
       </c>
@@ -2324,7 +2706,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -2343,7 +2725,9 @@
       <c r="F31" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
       <c r="H31" s="4" t="s">
         <v>163</v>
       </c>
@@ -2372,7 +2756,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>165</v>
       </c>
@@ -2391,7 +2775,9 @@
       <c r="F32" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
       <c r="H32" s="4" t="s">
         <v>31</v>
       </c>
@@ -2420,7 +2806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>170</v>
       </c>
@@ -2439,7 +2825,9 @@
       <c r="F33" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
       <c r="H33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2468,7 +2856,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>175</v>
       </c>
@@ -2487,7 +2875,9 @@
       <c r="F34" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
       <c r="H34" s="4" t="s">
         <v>31</v>
       </c>
@@ -2516,7 +2906,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>180</v>
       </c>
@@ -2535,7 +2925,9 @@
       <c r="F35" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
       <c r="H35" s="4" t="s">
         <v>31</v>
       </c>
@@ -2564,7 +2956,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>185</v>
       </c>
@@ -2583,7 +2975,9 @@
       <c r="F36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
       <c r="H36" s="4" t="s">
         <v>31</v>
       </c>
@@ -2612,7 +3006,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>190</v>
       </c>
@@ -2631,7 +3025,9 @@
       <c r="F37" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
       <c r="H37" s="4" t="s">
         <v>31</v>
       </c>
@@ -2660,7 +3056,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>195</v>
       </c>
@@ -2679,7 +3075,9 @@
       <c r="F38" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
       <c r="H38" s="4" t="s">
         <v>31</v>
       </c>
@@ -2708,7 +3106,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>200</v>
       </c>
@@ -2727,7 +3125,9 @@
       <c r="F39" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
       <c r="H39" s="4" t="s">
         <v>31</v>
       </c>
@@ -2756,7 +3156,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>205</v>
       </c>
@@ -2775,7 +3175,9 @@
       <c r="F40" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3">
+        <v>5</v>
+      </c>
       <c r="H40" s="4" t="s">
         <v>31</v>
       </c>
@@ -2804,7 +3206,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>210</v>
       </c>
@@ -2823,7 +3225,9 @@
       <c r="F41" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
       <c r="H41" s="4" t="s">
         <v>31</v>
       </c>
@@ -2852,7 +3256,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>215</v>
       </c>
@@ -2871,7 +3275,9 @@
       <c r="F42" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
       <c r="H42" s="4" t="s">
         <v>31</v>
       </c>
@@ -2900,7 +3306,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>220</v>
       </c>
@@ -2919,7 +3325,9 @@
       <c r="F43" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
       <c r="H43" s="4" t="s">
         <v>31</v>
       </c>
@@ -2948,7 +3356,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>225</v>
       </c>
@@ -2967,7 +3375,9 @@
       <c r="F44" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
       <c r="H44" s="4" t="s">
         <v>31</v>
       </c>
@@ -2996,7 +3406,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>230</v>
       </c>
@@ -3015,7 +3425,9 @@
       <c r="F45" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
       <c r="H45" s="4" t="s">
         <v>31</v>
       </c>
@@ -3044,7 +3456,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>235</v>
       </c>
@@ -3063,7 +3475,9 @@
       <c r="F46" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
       <c r="H46" s="4" t="s">
         <v>31</v>
       </c>
@@ -3092,7 +3506,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>240</v>
       </c>
@@ -3111,7 +3525,9 @@
       <c r="F47" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3">
+        <v>1.3</v>
+      </c>
       <c r="H47" s="4" t="s">
         <v>31</v>
       </c>
@@ -3140,7 +3556,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>245</v>
       </c>
@@ -3159,7 +3575,9 @@
       <c r="F48" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3">
+        <v>3.3</v>
+      </c>
       <c r="H48" s="4" t="s">
         <v>249</v>
       </c>
@@ -3188,7 +3606,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>251</v>
       </c>
@@ -3207,7 +3625,9 @@
       <c r="F49" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3">
+        <v>3.3</v>
+      </c>
       <c r="H49" s="4" t="s">
         <v>249</v>
       </c>
@@ -3236,7 +3656,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>255</v>
       </c>
@@ -3255,7 +3675,9 @@
       <c r="F50" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
       <c r="H50" s="4" t="s">
         <v>31</v>
       </c>
@@ -3284,7 +3706,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>260</v>
       </c>
@@ -3303,7 +3725,9 @@
       <c r="F51" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
       <c r="H51" s="4" t="s">
         <v>31</v>
       </c>
@@ -3332,7 +3756,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>265</v>
       </c>
@@ -3351,7 +3775,9 @@
       <c r="F52" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
       <c r="H52" s="4" t="s">
         <v>269</v>
       </c>
@@ -3380,7 +3806,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>271</v>
       </c>
@@ -3399,7 +3825,9 @@
       <c r="F53" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
       <c r="H53" s="4" t="s">
         <v>31</v>
       </c>
@@ -3428,7 +3856,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>276</v>
       </c>
@@ -3447,7 +3875,9 @@
       <c r="F54" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
       <c r="H54" s="4" t="s">
         <v>31</v>
       </c>
@@ -3476,7 +3906,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>280</v>
       </c>
@@ -3495,7 +3925,9 @@
       <c r="F55" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
       <c r="H55" s="4" t="s">
         <v>31</v>
       </c>
@@ -3524,7 +3956,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>285</v>
       </c>
@@ -3543,7 +3975,9 @@
       <c r="F56" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
       <c r="H56" s="4" t="s">
         <v>31</v>
       </c>
@@ -3572,7 +4006,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>290</v>
       </c>
@@ -3591,7 +4025,9 @@
       <c r="F57" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="3">
+        <v>1.3</v>
+      </c>
       <c r="H57" s="4" t="s">
         <v>31</v>
       </c>
@@ -3620,7 +4056,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>295</v>
       </c>
@@ -3639,7 +4075,9 @@
       <c r="F58" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
       <c r="H58" s="4" t="s">
         <v>163</v>
       </c>
@@ -3668,7 +4106,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>300</v>
       </c>
@@ -3687,7 +4125,9 @@
       <c r="F59" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G59" s="3"/>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
       <c r="H59" s="4" t="s">
         <v>31</v>
       </c>
@@ -3716,7 +4156,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>305</v>
       </c>
@@ -3735,7 +4175,9 @@
       <c r="F60" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G60" s="3"/>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
       <c r="H60" s="4" t="s">
         <v>31</v>
       </c>
@@ -3764,7 +4206,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>310</v>
       </c>
@@ -3783,7 +4225,9 @@
       <c r="F61" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G61" s="3"/>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
       <c r="H61" s="4" t="s">
         <v>31</v>
       </c>
@@ -3812,12 +4256,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>